--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Il11</t>
+  </si>
+  <si>
+    <t>Il11ra1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il11</t>
-  </si>
-  <si>
-    <t>Il11ra1</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3142306666666667</v>
+        <v>0.15518</v>
       </c>
       <c r="H2">
-        <v>0.942692</v>
+        <v>0.46554</v>
       </c>
       <c r="I2">
-        <v>0.6694152668026291</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6694152668026291</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.939185333333333</v>
+        <v>4.113196333333334</v>
       </c>
       <c r="N2">
-        <v>8.817556</v>
+        <v>12.339589</v>
       </c>
       <c r="O2">
-        <v>0.04923430298804786</v>
+        <v>0.06757131683644607</v>
       </c>
       <c r="P2">
-        <v>0.04923430298804787</v>
+        <v>0.06757131683644607</v>
       </c>
       <c r="Q2">
-        <v>0.9235821667502221</v>
+        <v>0.6382858070066668</v>
       </c>
       <c r="R2">
-        <v>8.312239500752</v>
+        <v>5.74457226306</v>
       </c>
       <c r="S2">
-        <v>0.03295819407058553</v>
+        <v>0.06757131683644607</v>
       </c>
       <c r="T2">
-        <v>0.03295819407058555</v>
+        <v>0.06757131683644607</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3142306666666667</v>
+        <v>0.15518</v>
       </c>
       <c r="H3">
-        <v>0.942692</v>
+        <v>0.46554</v>
       </c>
       <c r="I3">
-        <v>0.6694152668026291</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6694152668026291</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>48.58222466666666</v>
+        <v>48.58222466666667</v>
       </c>
       <c r="N3">
         <v>145.746674</v>
       </c>
       <c r="O3">
-        <v>0.8138010019121213</v>
+        <v>0.7981055679173932</v>
       </c>
       <c r="P3">
-        <v>0.8138010019121215</v>
+        <v>0.7981055679173932</v>
       </c>
       <c r="Q3">
-        <v>15.26602484515644</v>
+        <v>7.538989623773334</v>
       </c>
       <c r="R3">
-        <v>137.394223606408</v>
+        <v>67.85090661396001</v>
       </c>
       <c r="S3">
-        <v>0.5447708148192496</v>
+        <v>0.7981055679173932</v>
       </c>
       <c r="T3">
-        <v>0.5447708148192496</v>
+        <v>0.7981055679173932</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3142306666666667</v>
+        <v>0.15518</v>
       </c>
       <c r="H4">
-        <v>0.942692</v>
+        <v>0.46554</v>
       </c>
       <c r="I4">
-        <v>0.6694152668026291</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6694152668026291</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,214 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.176506999999999</v>
+        <v>8.176507000000001</v>
       </c>
       <c r="N4">
         <v>24.529521</v>
       </c>
       <c r="O4">
-        <v>0.1369646950998307</v>
+        <v>0.1343231152461608</v>
       </c>
       <c r="P4">
-        <v>0.1369646950998307</v>
+        <v>0.1343231152461608</v>
       </c>
       <c r="Q4">
-        <v>2.569309245614666</v>
+        <v>1.26883035626</v>
       </c>
       <c r="R4">
-        <v>23.123783210532</v>
+        <v>11.41947320634</v>
       </c>
       <c r="S4">
-        <v>0.0916862579127939</v>
+        <v>0.1343231152461608</v>
       </c>
       <c r="T4">
-        <v>0.09168625791279393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.15518</v>
-      </c>
-      <c r="H5">
-        <v>0.46554</v>
-      </c>
-      <c r="I5">
-        <v>0.3305847331973709</v>
-      </c>
-      <c r="J5">
-        <v>0.3305847331973709</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.939185333333333</v>
-      </c>
-      <c r="N5">
-        <v>8.817556</v>
-      </c>
-      <c r="O5">
-        <v>0.04923430298804786</v>
-      </c>
-      <c r="P5">
-        <v>0.04923430298804787</v>
-      </c>
-      <c r="Q5">
-        <v>0.4561027800266667</v>
-      </c>
-      <c r="R5">
-        <v>4.10492502024</v>
-      </c>
-      <c r="S5">
-        <v>0.01627610891746232</v>
-      </c>
-      <c r="T5">
-        <v>0.01627610891746233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.15518</v>
-      </c>
-      <c r="H6">
-        <v>0.46554</v>
-      </c>
-      <c r="I6">
-        <v>0.3305847331973709</v>
-      </c>
-      <c r="J6">
-        <v>0.3305847331973709</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>48.58222466666666</v>
-      </c>
-      <c r="N6">
-        <v>145.746674</v>
-      </c>
-      <c r="O6">
-        <v>0.8138010019121213</v>
-      </c>
-      <c r="P6">
-        <v>0.8138010019121215</v>
-      </c>
-      <c r="Q6">
-        <v>7.538989623773333</v>
-      </c>
-      <c r="R6">
-        <v>67.85090661395999</v>
-      </c>
-      <c r="S6">
-        <v>0.2690301870928718</v>
-      </c>
-      <c r="T6">
-        <v>0.2690301870928718</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.15518</v>
-      </c>
-      <c r="H7">
-        <v>0.46554</v>
-      </c>
-      <c r="I7">
-        <v>0.3305847331973709</v>
-      </c>
-      <c r="J7">
-        <v>0.3305847331973709</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>8.176506999999999</v>
-      </c>
-      <c r="N7">
-        <v>24.529521</v>
-      </c>
-      <c r="O7">
-        <v>0.1369646950998307</v>
-      </c>
-      <c r="P7">
-        <v>0.1369646950998307</v>
-      </c>
-      <c r="Q7">
-        <v>1.26883035626</v>
-      </c>
-      <c r="R7">
-        <v>11.41947320634</v>
-      </c>
-      <c r="S7">
-        <v>0.04527843718703679</v>
-      </c>
-      <c r="T7">
-        <v>0.04527843718703679</v>
+        <v>0.1343231152461608</v>
       </c>
     </row>
   </sheetData>
